--- a/pricesheets/08-10-2020.xlsx
+++ b/pricesheets/08-10-2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="166">
   <si>
     <t>Company Name</t>
   </si>
@@ -187,19 +187,19 @@
     <t>17</t>
   </si>
   <si>
-    <t>1.675</t>
-  </si>
-  <si>
-    <t>2.0945</t>
+    <t>1.7265</t>
+  </si>
+  <si>
+    <t>2.2475</t>
   </si>
   <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>4.0001</t>
-  </si>
-  <si>
-    <t>3.88</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.0905</t>
   </si>
   <si>
     <t>225.6</t>
@@ -208,34 +208,34 @@
     <t>61</t>
   </si>
   <si>
-    <t>4.3372</t>
-  </si>
-  <si>
-    <t>42.35</t>
-  </si>
-  <si>
-    <t>8.99</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>16.9414</t>
-  </si>
-  <si>
-    <t>4.7233</t>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8.4338</t>
+  </si>
+  <si>
+    <t>0.8975</t>
+  </si>
+  <si>
+    <t>16.8979</t>
+  </si>
+  <si>
+    <t>4.7019</t>
   </si>
   <si>
     <t>1.02</t>
   </si>
   <si>
-    <t>15</t>
+    <t>14.8959</t>
   </si>
   <si>
     <t>0.96</t>
   </si>
   <si>
-    <t>0.6015</t>
+    <t>0.5014</t>
   </si>
   <si>
     <t>4.3</t>
@@ -250,25 +250,25 @@
     <t>0.125</t>
   </si>
   <si>
-    <t>13.9839</t>
-  </si>
-  <si>
-    <t>19.9002</t>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>18.4086</t>
   </si>
   <si>
     <t>6.1</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>0.5576</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>1.1475</t>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>1.0514</t>
   </si>
   <si>
     <t>50</t>
@@ -280,10 +280,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>4.7706</t>
-  </si>
-  <si>
-    <t>14.6989</t>
+    <t>4.7883</t>
+  </si>
+  <si>
+    <t>14.6962</t>
   </si>
   <si>
     <t>1.55</t>
@@ -298,10 +298,10 @@
     <t>9.2</t>
   </si>
   <si>
-    <t>18.9962</t>
-  </si>
-  <si>
-    <t>6.7</t>
+    <t>18.981</t>
+  </si>
+  <si>
+    <t>6.7341</t>
   </si>
   <si>
     <t>0.17</t>
@@ -319,7 +319,10 @@
     <t>0.1295</t>
   </si>
   <si>
-    <t>0.2278</t>
+    <t>0.2301</t>
+  </si>
+  <si>
+    <t>14.1772</t>
   </si>
   <si>
     <t>0.0002</t>
@@ -340,163 +343,175 @@
     <t>Closing Price</t>
   </si>
   <si>
-    <t>1.7265</t>
-  </si>
-  <si>
-    <t>2.2475</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.0905</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>8.4338</t>
-  </si>
-  <si>
-    <t>0.8975</t>
-  </si>
-  <si>
-    <t>16.8979</t>
-  </si>
-  <si>
-    <t>4.7019</t>
-  </si>
-  <si>
-    <t>14.8959</t>
-  </si>
-  <si>
-    <t>0.5014</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>18.4086</t>
-  </si>
-  <si>
-    <t>0.5576</t>
-  </si>
-  <si>
-    <t>15.05</t>
-  </si>
-  <si>
-    <t>1.0514</t>
-  </si>
-  <si>
-    <t>4.7883</t>
-  </si>
-  <si>
-    <t>14.6962</t>
-  </si>
-  <si>
-    <t>18.981</t>
-  </si>
-  <si>
-    <t>6.7341</t>
-  </si>
-  <si>
-    <t>0.2301</t>
-  </si>
-  <si>
-    <t>14.1772</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1.5837</t>
+  </si>
+  <si>
+    <t>2.0585</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>4.0102</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>4.3014</t>
+  </si>
+  <si>
+    <t>8.4354</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>16.6351</t>
+  </si>
+  <si>
+    <t>4.7315</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>14.6773</t>
+  </si>
+  <si>
+    <t>0.5093</t>
+  </si>
+  <si>
+    <t>2.1919</t>
+  </si>
+  <si>
+    <t>18.2811</t>
+  </si>
+  <si>
+    <t>0.6675</t>
+  </si>
+  <si>
+    <t>0.0799</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>4.6589</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>18.0585</t>
+  </si>
+  <si>
+    <t>6.2142</t>
+  </si>
+  <si>
+    <t>0.2339</t>
+  </si>
+  <si>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
   <si>
     <t>Total Traded Volume</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>9700</t>
+  </si>
+  <si>
+    <t>109400</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>26800</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>34400</t>
-  </si>
-  <si>
-    <t>300</t>
+    <t>85700</t>
+  </si>
+  <si>
+    <t>8600</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>384800</t>
+  </si>
+  <si>
+    <t>358200</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>617800</t>
+  </si>
+  <si>
+    <t>354300</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>57600</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>638900</t>
+  </si>
+  <si>
+    <t>35200</t>
+  </si>
+  <si>
+    <t>21600</t>
+  </si>
+  <si>
+    <t>377300</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>1292000</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>76700</t>
-  </si>
-  <si>
-    <t>108500</t>
-  </si>
-  <si>
-    <t>778100</t>
-  </si>
-  <si>
-    <t>272300</t>
-  </si>
-  <si>
-    <t>304500</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>46800</t>
-  </si>
-  <si>
-    <t>437000</t>
-  </si>
-  <si>
-    <t>10200</t>
-  </si>
-  <si>
-    <t>40100</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>31500</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>49000</t>
-  </si>
-  <si>
-    <t>417600</t>
-  </si>
-  <si>
-    <t>74200</t>
-  </si>
-  <si>
-    <t>16600</t>
-  </si>
-  <si>
-    <t>430300</t>
-  </si>
-  <si>
-    <t>169100</t>
+    <t>13500</t>
+  </si>
+  <si>
+    <t>164700</t>
+  </si>
+  <si>
+    <t>1279600</t>
+  </si>
+  <si>
+    <t>5000000</t>
   </si>
   <si>
     <t>7900</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>20100</t>
   </si>
 </sst>
 </file>
@@ -882,10 +897,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -901,10 +916,10 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -915,10 +930,10 @@
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -929,10 +944,10 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -943,10 +958,10 @@
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -957,10 +972,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -971,10 +986,10 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -988,7 +1003,7 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1002,7 +1017,7 @@
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1013,10 +1028,10 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1027,10 +1042,10 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1041,10 +1056,10 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1055,10 +1070,10 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1069,10 +1084,10 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1083,10 +1098,10 @@
         <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1097,10 +1112,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1111,10 +1126,10 @@
         <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1128,7 +1143,7 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1139,10 +1154,10 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1156,7 +1171,7 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1167,7 +1182,7 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>144</v>
@@ -1184,7 +1199,7 @@
         <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1198,7 +1213,7 @@
         <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1209,10 +1224,10 @@
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1223,10 +1238,10 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1240,7 +1255,7 @@
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1251,10 +1266,10 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1262,13 +1277,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1276,13 +1291,13 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1290,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1307,10 +1322,10 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1324,7 +1339,7 @@
         <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1338,7 +1353,7 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1352,7 +1367,7 @@
         <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1363,10 +1378,10 @@
         <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1377,10 +1392,10 @@
         <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1394,7 +1409,7 @@
         <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1405,10 +1420,10 @@
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1422,7 +1437,7 @@
         <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1436,7 +1451,7 @@
         <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1447,10 +1462,10 @@
         <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1461,10 +1476,10 @@
         <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1478,7 +1493,7 @@
         <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1492,7 +1507,7 @@
         <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1506,7 +1521,7 @@
         <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1520,7 +1535,7 @@
         <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1534,7 +1549,7 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1545,10 +1560,10 @@
         <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1556,13 +1571,13 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1570,13 +1585,13 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1584,13 +1599,13 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1598,13 +1613,13 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1612,13 +1627,13 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1626,13 +1641,13 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
